--- a/02-Requirements/Team1_Historias_Usuario.xlsx
+++ b/02-Requirements/Team1_Historias_Usuario.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diana\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\CANGRECODERS-GROUP-1\02-Requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4900BC11-A6ED-4E82-BA76-76D81CA059C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9620DF-19A6-48A7-AEBF-8F812F23A758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,15 +16,12 @@
     <sheet name="Formato descripción HU" sheetId="1" r:id="rId1"/>
     <sheet name="Historia de Usuario" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -195,9 +192,6 @@
     <t>Incorporación de un formulario de registro de estudiantes al sistema</t>
   </si>
   <si>
-    <t xml:space="preserve">El sistema debe permitir gestionar la información de los estudiantes, se guardará nombre, apellido, dirección, teléfono. </t>
-  </si>
-  <si>
     <t>Registro de estudiantes</t>
   </si>
   <si>
@@ -244,6 +238,9 @@
   </si>
   <si>
     <t>Interfaz mustra un formulario a ser completado, luego de enviado un mensaje "Sus datos fueron enviados correctamente"</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir gestionar la información de los estudiantes, se guardará nombre, apellido, dirección, teléfono. Entre ellos tenemos crear, actualizar, eliminar y cnosultar información mediante URIS.</t>
   </si>
 </sst>
 </file>
@@ -815,6 +812,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -824,16 +827,36 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -842,32 +865,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1177,8 +1174,8 @@
   </sheetPr>
   <dimension ref="A1:Z984"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1233,22 +1230,22 @@
     </row>
     <row r="3" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
@@ -1270,46 +1267,46 @@
     </row>
     <row r="5" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="59" t="s">
+      <c r="G5" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="59" t="s">
+      <c r="H5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="59" t="s">
+      <c r="J5" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="59" t="s">
+      <c r="K5" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="59" t="s">
+      <c r="L5" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="59" t="s">
+      <c r="M5" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="59" t="s">
+      <c r="N5" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="59" t="s">
+      <c r="O5" s="32" t="s">
         <v>14</v>
       </c>
       <c r="P5" s="4"/>
@@ -1377,16 +1374,16 @@
         <v>43</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F7" s="31" t="s">
         <v>31</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I7" s="28" t="s">
         <v>36</v>
@@ -1401,11 +1398,11 @@
         <v>20</v>
       </c>
       <c r="M7" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N7" s="31"/>
       <c r="O7" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="128.44999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1416,19 +1413,19 @@
         <v>51</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="F8" s="31" t="s">
         <v>31</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I8" s="28" t="s">
         <v>37</v>
@@ -1447,7 +1444,7 @@
       </c>
       <c r="N8" s="31"/>
       <c r="O8" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="117" customHeight="1" x14ac:dyDescent="0.2">
@@ -1455,22 +1452,22 @@
         <v>42</v>
       </c>
       <c r="C9" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="31" t="s">
         <v>64</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>65</v>
       </c>
       <c r="F9" s="31" t="s">
         <v>31</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I9" s="28" t="s">
         <v>38</v>
@@ -1485,11 +1482,11 @@
         <v>20</v>
       </c>
       <c r="M9" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N9" s="31"/>
       <c r="O9" s="31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7414,23 +7411,23 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="52"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="51"/>
     </row>
     <row r="7" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
@@ -7484,15 +7481,15 @@
         <v>1</v>
       </c>
       <c r="D9" s="16"/>
-      <c r="E9" s="51" t="s">
+      <c r="E9" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="52"/>
+      <c r="F9" s="51"/>
       <c r="G9" s="16"/>
-      <c r="H9" s="51" t="s">
+      <c r="H9" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="52"/>
+      <c r="I9" s="51"/>
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
@@ -7512,13 +7509,13 @@
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O9,5,0)</f>
         <v>Administrador</v>
       </c>
-      <c r="F10" s="52"/>
+      <c r="F10" s="51"/>
       <c r="G10" s="21"/>
       <c r="H10" s="53" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O9,11,0)</f>
         <v>Terminado</v>
       </c>
-      <c r="I10" s="52"/>
+      <c r="I10" s="51"/>
       <c r="J10" s="21"/>
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
@@ -7563,15 +7560,15 @@
         <v>24</v>
       </c>
       <c r="D12" s="20"/>
-      <c r="E12" s="51" t="s">
+      <c r="E12" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="52"/>
+      <c r="F12" s="51"/>
       <c r="G12" s="21"/>
-      <c r="H12" s="51" t="s">
+      <c r="H12" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="52"/>
+      <c r="I12" s="51"/>
       <c r="J12" s="21"/>
       <c r="K12" s="23"/>
       <c r="L12" s="23"/>
@@ -7602,13 +7599,13 @@
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O9,10,0)</f>
         <v>Alta</v>
       </c>
-      <c r="F13" s="52"/>
+      <c r="F13" s="51"/>
       <c r="G13" s="21"/>
       <c r="H13" s="53" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O9,7,0)</f>
         <v>Fernando Carrera</v>
       </c>
-      <c r="I13" s="52"/>
+      <c r="I13" s="51"/>
       <c r="J13" s="21"/>
       <c r="K13" s="23"/>
       <c r="L13" s="23"/>
@@ -7658,34 +7655,34 @@
     <row r="15" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="14"/>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="58" t="str">
+      <c r="D15" s="54" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O9,3,0)</f>
         <v xml:space="preserve">El sistema debe gestionar los cursos y contenidos a ser visualizados por los estudiantes en cada asignatura. </v>
       </c>
-      <c r="E15" s="39"/>
+      <c r="E15" s="40"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="34" t="s">
+      <c r="G15" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="58" t="str">
+      <c r="H15" s="54" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O9,4,0)</f>
         <v>Cargar las materias asignadas y monitorear el avance de revision de contenidos.</v>
       </c>
-      <c r="I15" s="38"/>
-      <c r="J15" s="39"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="40"/>
       <c r="K15" s="17"/>
-      <c r="L15" s="34" t="s">
+      <c r="L15" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="M15" s="37" t="str">
+      <c r="M15" s="46" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O9,6,0)</f>
         <v>El administrador carga las aulas y los contenidos</v>
       </c>
-      <c r="N15" s="38"/>
-      <c r="O15" s="39"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="40"/>
       <c r="P15" s="18"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
@@ -7701,19 +7698,19 @@
     <row r="16" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="14"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="41"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="45"/>
       <c r="F16" s="17"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="41"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="45"/>
       <c r="K16" s="17"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="41"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="45"/>
       <c r="P16" s="18"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
@@ -7729,19 +7726,19 @@
     <row r="17" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="14"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="44"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="42"/>
       <c r="F17" s="17"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="44"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="42"/>
       <c r="K17" s="17"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="44"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="42"/>
       <c r="P17" s="18"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
@@ -7784,42 +7781,42 @@
     </row>
     <row r="19" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="14"/>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="45" t="str">
+      <c r="D19" s="40"/>
+      <c r="E19" s="55" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O9,14,0)</f>
         <v>Creacion de Aulas/Cursos</v>
       </c>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="47"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="57"/>
       <c r="P19" s="18"/>
       <c r="Q19" s="4"/>
     </row>
     <row r="20" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="14"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="50"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="60"/>
       <c r="P20" s="18"/>
       <c r="Q20" s="4"/>
     </row>
@@ -7844,29 +7841,29 @@
     <row r="22" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="14"/>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="39"/>
-      <c r="E22" s="37" t="str">
+      <c r="D22" s="40"/>
+      <c r="E22" s="46" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O9,12,0)</f>
         <v xml:space="preserve">La interfaz muestra contenido de las asignaturas. </v>
       </c>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="39"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="40"/>
       <c r="I22" s="17"/>
-      <c r="J22" s="55" t="s">
+      <c r="J22" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="K22" s="39"/>
-      <c r="L22" s="37">
+      <c r="K22" s="40"/>
+      <c r="L22" s="46">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O9,13,0)</f>
         <v>0</v>
       </c>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="39"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="40"/>
       <c r="P22" s="18"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
@@ -7882,19 +7879,19 @@
     <row r="23" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="14"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="41"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="45"/>
       <c r="I23" s="17"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="41"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="45"/>
       <c r="P23" s="18"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
@@ -7910,19 +7907,19 @@
     <row r="24" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="14"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="44"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="42"/>
       <c r="I24" s="17"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="44"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="42"/>
       <c r="P24" s="18"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
@@ -9501,6 +9498,11 @@
     <row r="1020" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="M15:O17"/>
+    <mergeCell ref="E19:O20"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="C19:D20"/>
     <mergeCell ref="C22:D24"/>
@@ -9517,11 +9519,6 @@
     <mergeCell ref="D15:E17"/>
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="H15:J17"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="M15:O17"/>
-    <mergeCell ref="E19:O20"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:I11">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
